--- a/Story Ideas/Character Items/ItemList.xlsx
+++ b/Story Ideas/Character Items/ItemList.xlsx
@@ -1,19 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\Story Ideas\Character Items\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EC7E46-2173-4E5A-97C1-9EB1768E9DA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$K$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$1</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,91 +28,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="101">
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Acquired</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TrueDescription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PurchaseCost</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nikc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cool Cantrips to Make Your Crazy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Books</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taken from Hogwarts Library</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A book containing the Beginner-level Psionics spells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Book2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Dream Oracle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A book containing the Beginner-level Temporal Spells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cures, Cantrips and Coughs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A book containing the Beginner-level healing spells</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hogwarts Robes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clothing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purchased prior to arriving at Hogwarts</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="108">
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Acquired</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>TrueDescription</t>
+  </si>
+  <si>
+    <t>PurchaseCost</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Nikc</t>
+  </si>
+  <si>
+    <t>Helena</t>
+  </si>
+  <si>
+    <t>Cerise</t>
+  </si>
+  <si>
+    <t>Luke</t>
+  </si>
+  <si>
+    <t>Cool Cantrips to Make Your Crazy</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Taken from Hogwarts Library</t>
+  </si>
+  <si>
+    <t>A book containing the Beginner-level Psionics spells</t>
+  </si>
+  <si>
+    <t>Book2</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>The Dream Oracle</t>
+  </si>
+  <si>
+    <t>A book containing the Beginner-level Temporal Spells</t>
+  </si>
+  <si>
+    <t>Cures, Cantrips and Coughs</t>
+  </si>
+  <si>
+    <t>A book containing the Beginner-level healing spells</t>
+  </si>
+  <si>
+    <t>Hogwarts Robes</t>
+  </si>
+  <si>
+    <t>Clothing</t>
+  </si>
+  <si>
+    <t>Purchased prior to arriving at Hogwarts</t>
   </si>
   <si>
     <t xml:space="preserve">A simple set of black wizards robes with a colourful lining reflecting the Hogwarts House that you belong to. These robes are generally regarded as old fashioned and a bit odd to wear outside of school environs, but not totally unusual. 
 These robes give you a +1 to all casting checks whilst you are wearing them. </t>
   </si>
   <si>
-    <t xml:space="preserve">\sickle{10}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hat of Buckets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given by Lomp as a gift</t>
+    <t>\sickle{10}</t>
+  </si>
+  <si>
+    <t>Hat of Buckets</t>
+  </si>
+  <si>
+    <t>Given by Lomp as a gift</t>
   </si>
   <si>
     <t xml:space="preserve">A broken bucket with the bottom missing, and some eyeholes drilled into the side. 
@@ -115,13 +120,13 @@
 This bucket provides an additional +1 to the Block statistic (though not from attacks from above....) </t>
   </si>
   <si>
-    <t xml:space="preserve">\minus{}\knut{5}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shield Hat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Purchased from Weasley\apos{}s Wizarding Wheezes</t>
+    <t>\minus{}\knut{5}</t>
+  </si>
+  <si>
+    <t>Shield Hat</t>
+  </si>
+  <si>
+    <t>Purchased from Weasley\apos{}s Wizarding Wheezes</t>
   </si>
   <si>
     <t xml:space="preserve">First developed by the Weasley twins as a prank item prior to the Second Wizarding War, the Ministry took a great interest in the Shield Hat as a defensive item. As a result, an entirely new line of (mostly) serious products were introduced. 
@@ -130,16 +135,16 @@
 This shield has a health of 40HP. If any attack would cause the shield to drop to 0HP, the shield is dispelled and half the remaining damage is dealt to the wearer. </t>
   </si>
   <si>
-    <t xml:space="preserve">\galleon{0.5}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\galleon{1}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gloves of Muromets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Awarded for compleing the Hogwarts Hunt</t>
+    <t>\galleon{0.5}</t>
+  </si>
+  <si>
+    <t>\galleon{1}</t>
+  </si>
+  <si>
+    <t>Gloves of Muromets</t>
+  </si>
+  <si>
+    <t>Awarded for compleing the Hogwarts Hunt</t>
   </si>
   <si>
     <t xml:space="preserve">A pair of iridescent black gloves, seemingly constructed out of a kind of pearlescent leather you have never seen before. These gloves belonged to the Russian hero-wizard Ilya Muromets, who fashioned them from the hide of a vicious monster he slew in single combat. 
@@ -148,29 +153,29 @@
 These gloves give you advantage on all grappling checks as well as a +2 bonus on accuracy checks when using ranged weapons. </t>
   </si>
   <si>
-    <t xml:space="preserve">These are not the true Gloves of Muromets - merely a very fine replica. This can be revealed on a DV 18 Investigation check of the gloves.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\galleon{20}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Peruvian Instant Darkness Powder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Items</t>
+    <t>These are not the true Gloves of Muromets - merely a very fine replica. This can be revealed on a DV 18 Investigation check of the gloves.</t>
+  </si>
+  <si>
+    <t>Reward</t>
+  </si>
+  <si>
+    <t>\galleon{20}</t>
+  </si>
+  <si>
+    <t>Peruvian Instant Darkness Powder</t>
+  </si>
+  <si>
+    <t>Items</t>
   </si>
   <si>
     <t xml:space="preserve">A small pouch containing an almost impossibly black, gritty powder. 
 When tossed into the air, the powder expands an fills a sphere up to 3 metres in radius. The powder is so pervasively black that it prevents all light from passing through it. All sight lines which pass through the afflicted area automatically fail. </t>
   </si>
   <si>
-    <t xml:space="preserve">\sickle{2}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Decoy Detonators</t>
+    <t>\sickle{2}</t>
+  </si>
+  <si>
+    <t>Decoy Detonators</t>
   </si>
   <si>
     <t xml:space="preserve">In a tribute to their father, the Weasley\apos{}s designed the Decoy Detonator to look like a slightly oversized rubber duck, though with a slightly random assortment of legs, wheels, caterpillar treads, and octopus tentacles stuck to the bottom. 
@@ -178,29 +183,29 @@
 This explosion is not violent enough to do physical damage to all but the weakest of beings, but it provides an excellent distraction and diversion. </t>
   </si>
   <si>
-    <t xml:space="preserve">Free</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tarnished Necklace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Found in the Junk Shop</t>
+    <t>Free</t>
+  </si>
+  <si>
+    <t>Tarnished Necklace</t>
+  </si>
+  <si>
+    <t>Found in the Junk Shop</t>
   </si>
   <si>
     <t xml:space="preserve">A stained and grubby metal chain, with what looks to be (beneath the grime) a gemstone of some kind. 
 A magical investigation led you to understand that this was a very valuable bit of jewellery, though not in the best of conditions. The gemstone in the centre is a very large, very pure sapphire. </t>
   </si>
   <si>
-    <t xml:space="preserve">\knut{5}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">\galleon{7}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ministry Badge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given by Galen Rex</t>
+    <t>\knut{5}</t>
+  </si>
+  <si>
+    <t>\galleon{7}</t>
+  </si>
+  <si>
+    <t>Ministry Badge</t>
+  </si>
+  <si>
+    <t>Given by Galen Rex</t>
   </si>
   <si>
     <t xml:space="preserve">A very official looking bade, inscribed with the ministry insignia. The badge itself fits comfortably into the palm of your hand. </t>
@@ -209,10 +214,10 @@
     <t xml:space="preserve">This badge doubles as a tracking and recording device, relaying all information back to the ministry. </t>
   </si>
   <si>
-    <t xml:space="preserve">N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moobox of Teleportation</t>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Moobox of Teleportation</t>
   </si>
   <si>
     <t xml:space="preserve">An enchanted portkey given to you by the ministry. The outward appearance is of a {\it Moo box}, a muggle toy in the shape of a cylinder which produces a loud mooing sound when tipped. This one, however, appears to have been warped and broken, because the noise it makes bears very little resemblence to a real cow. 
@@ -220,75 +225,75 @@
 This object is single-use. </t>
   </si>
   <si>
-    <t xml:space="preserve">School Satchel</t>
+    <t>School Satchel</t>
   </si>
   <si>
     <t xml:space="preserve">A small over-the-shoulder bag used by Hogwarts Students. Enough room to contain up to two large textbooks and a number of small items. </t>
   </si>
   <si>
-    <t xml:space="preserve">\sickle{5}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crystal Ball</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stolen from the Divination Tower</t>
+    <t>\sickle{5}</t>
+  </si>
+  <si>
+    <t>Crystal Ball</t>
+  </si>
+  <si>
+    <t>Stolen from the Divination Tower</t>
   </si>
   <si>
     <t xml:space="preserve">A large ball of crystal which appears clouded at times, and perfeclty clear at other times. With the appropriate training and magical spells, you can use this to peer into the past, present or future. </t>
   </si>
   <si>
-    <t xml:space="preserve">Stolen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wiggenweld Potion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potions</t>
+    <t>Stolen</t>
+  </si>
+  <si>
+    <t>Wiggenweld Potion</t>
+  </si>
+  <si>
+    <t>Potions</t>
   </si>
   <si>
     <t xml:space="preserve">A potion which heals 5 hit points when consumed.  </t>
   </si>
   <si>
-    <t xml:space="preserve">Alchemy Gear</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tools</t>
+    <t>Alchemy Gear</t>
+  </si>
+  <si>
+    <t>Tools</t>
   </si>
   <si>
     <t xml:space="preserve">A set of alchemy tools necessary for mixing potions, including a collapsible cauldron. </t>
   </si>
   <si>
-    <t xml:space="preserve">Forgery Tools</t>
+    <t>Forgery Tools</t>
   </si>
   <si>
     <t xml:space="preserve">A calligraphy set, and other widgets and devices necessary to produce authentic-looking forged documents. </t>
   </si>
   <si>
-    <t xml:space="preserve">Hazel and Veela Hair Wand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weapons</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A dark brown wand, 9 inches, inflexible, but with many knots and whorls decorating its surface. Requires proficiency with Wands in order to use. 
+    <t>Hazel and Veela Hair Wand</t>
+  </si>
+  <si>
+    <t>Weapons</t>
+  </si>
+  <si>
+    <t>A dark brown wand, 9 inches, inflexible, but with many knots and whorls decorating its surface. Requires proficiency with Wands in order to use. 
 This wand gives +1 to casting and accuracy checks for both Bewitchment and Psionics spells, and reduces the FP cost of those same spells by 1FP.</t>
   </si>
   <si>
-    <t xml:space="preserve">\galleon{5}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Helena\apos{}s Wand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apple and Unicorn Tail Hair Wand</t>
+    <t>\galleon{5}</t>
+  </si>
+  <si>
+    <t>Helena\apos{}s Wand</t>
+  </si>
+  <si>
+    <t>Apple and Unicorn Tail Hair Wand</t>
   </si>
   <si>
     <t xml:space="preserve">A golden orange wand, 10 inches long and very supple. Requires proficiency with Wands in order to use. 
 This wand gives +1 to casting and accuracy checks for both Healing and Warding spells, and reduces the FP cost of spells from the Temporal and Telepathy disicplines by 1. </t>
   </si>
   <si>
-    <t xml:space="preserve">Blunted Silver Greatsword</t>
+    <t>Blunted Silver Greatsword</t>
   </si>
   <si>
     <t xml:space="preserve">An enormous silver weapon, approximately 6 feet (2 metres) in length. This is an old and poorly kept blade, and silver is a very soft metal - rendering it in less than perfect condition. 
@@ -296,10 +301,10 @@
 Whenever you perform a strike with this weapon, roll a d10. On a 1, this weapon becomes dented and damaged, taking an additional 1-point penalty to its damage. This penalty remains until the sword is repaired. </t>
   </si>
   <si>
-    <t xml:space="preserve">Stone Battleaxe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taken from a stone statue at Hogwarts</t>
+    <t>Stone Battleaxe</t>
+  </si>
+  <si>
+    <t>Taken from a stone statue at Hogwarts</t>
   </si>
   <si>
     <t xml:space="preserve">A stone facimile of a two-handed battleaxe, which you prised from the hands of one of the many statues found around the Hogwarts castle. Though only a replica, it functions perfectly well as a weapon, though maybe a little on the heavy side. 
@@ -307,65 +312,50 @@
 However, as a stone weapon, it is particularly vulnerable to shattering. Every time a strike is made with this weapon, roll a d20. On a natural 1, this weapon shatters and becomes unusuable. </t>
   </si>
   <si>
-    <t xml:space="preserve">Found</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dagger</t>
+    <t>Found</t>
+  </si>
+  <si>
+    <t>Dagger</t>
   </si>
   <si>
     <t xml:space="preserve">A small knife with a wicked edge. Deals 1d4 piercing damage. </t>
   </si>
   <si>
-    <t xml:space="preserve">Mysterious Egg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Miscellaneous</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A pulsing , off-white egg, seemingly covered in a grotesque mucous-like substance, approximately the size of a large rugby ball. Inside you can see the shadow of a fist-sized spider curled up, occassionally shifting and moving around.</t>
+    <t>Mysterious Egg</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>A pulsing , off-white egg, seemingly covered in a grotesque mucous-like substance, approximately the size of a large rugby ball. Inside you can see the shadow of a fist-sized spider curled up, occassionally shifting and moving around.</t>
   </si>
   <si>
     <t xml:space="preserve">This is the egg of an Acromantula. It has around 3 days left until it hatches. </t>
   </si>
   <si>
-    <t xml:space="preserve">\galleon{8}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transmutation Stone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A token infused with energy from the Transfiguration school of magic. 
-When on your person, it has one of the following effects:
-\begin{itemize}
-\boldItem{Minor Transmutation}{By tapping the stone against a simple object no more than 10kg in mass, made entirely of wood, stone, iron, copper or silver you may transform it into another of those materials. This lasts for 10 minutes, and the spell reverts.}
-\boldItem{Claws}{As a minor action you may use the stone to grow a pair of wicked curved claw-like fingernails. Your unarmed attacks deal an additional 1d6 slashing damage.}
-\boldItem{Purify}{By dropping the stone into a vessel of water, or rubbing against some food, you may instantly purify it, removing any poison, mould or other contaminants.}
-\boldItem{Dimensional Anchor}{The stone anchors summoned objects to this reality for longer. The effective duration of Conjuration spells is increased by 50\%}
-\boldItem{Hidden Trickster}{You may cast the {\it Prank} spell as a wandless, silent action. }
-\end{itemize}
-When casting a spell from the transfiguration school, you may channel a part of the magical energy into the stone, altering its effects. This costs an additional 1FP. 
-You may not have the effect of more than one magical Icon active at any one point. If you possess multiple such icons, you can decide which one is active. You can only change your choice after a long rest. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">\galleon{3}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voodoo Icon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Defender\apos{}s Coin</t>
+    <t>\galleon{8}</t>
+  </si>
+  <si>
+    <t>Icon: Transmutation Stone</t>
+  </si>
+  <si>
+    <t>Icon: Voodoo Doll</t>
+  </si>
+  <si>
+    <t>Icon: Defender\apos{}s Coin</t>
+  </si>
+  <si>
+    <t>\galleon{10}</t>
+  </si>
+  <si>
+    <t>\galleon{13}</t>
+  </si>
+  <si>
+    <t>Icon: Duellist\apos{}s Bauble</t>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">A token infused with energy from the Recuperation school of magic. 
-When on your person, it has one of the following effects:
+      <t>A token infused with energy from the Recuperation school of magic. When on your person, it has one of the following effects:
 \begin{itemize}
 \boldItem{Lay on Hands}{By placing your hands onto the chest of a wounded individual, you may restore 1d8 HP to them. This increases to 2d8 at 8</t>
     </r>
@@ -378,7 +368,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -399,7 +389,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -420,7 +410,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">th</t>
+      <t>th</t>
     </r>
     <r>
       <rPr>
@@ -435,19 +425,56 @@
 \boldItem{Stabilising Field}{Whenever you fall below 0HP, you instead take the {\it Critical But Stable} condition. You regenerate HP at a rate of 1 per turn (max 0) until this condition is removed.}
 \boldItem{Ward Reinforce}{Your wards regenerate strength at a rate of 2HP per turn. They cannot exceed their original strength using this effect.}
 \end{itemize}
-When casting a spell from the recuperation school, you may channel a part of the magical energy into the stone, altering its effects. This costs an additional 1FP. 
+When casting a spell from the recuperation school, you may channel a part of the magical energy into the stone, altering its effects. This costs an additional FP equal to your character level. 
 You may not have the effect of more than one magical Icon active at any one point. If you possess multiple such icons, you can decide which one is active. You can only change your choice after a long rest. </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">A token infused with energy from the Transfiguration school of magic. When on your person, it has one of the following effects:
+\begin{itemize}
+\boldItem{Minor Transmutation}{By tapping the stone against a simple object no more than 10kg in mass, made entirely of wood, stone, iron, copper or silver you may transform it into another of those materials. This lasts for 10 minutes, before the spell reverts.}
+\boldItem{Purify}{By dropping the stone into a vessel of water, or rubbing against some food, you may instantly purify it, removing any poison, mould or other contaminants.}
+\boldItem{Dimensional Anchor}{The stone anchors summoned objects to this reality for longer. The effective duration of Conjuration spells is increased by 50\%}
+\boldItem{Hidden Trickster}{You may cast the {\it Prank} spell as a wandless, silent action. }
+\end{itemize}
+When casting a spell from the transfiguration school, you may channel a part of the magical energy into the stone, altering its effects. This costs an additional FP equal to your character level. 
+You may not have the effect of more than one magical Icon active at any one point. If you possess multiple such icons, you can decide which one is active. You can only change your choice after a long rest. </t>
+  </si>
+  <si>
+    <t>Icon: Sorcerous Token</t>
+  </si>
+  <si>
+    <t>Icon: Inscrutable Talisman</t>
+  </si>
+  <si>
+    <t>Icon: Shifting Feather</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A token infused with energy from the Malediction school of magic. When on your person, it has one of the following effects:
+\begin{itemize}
+\boldItem{Ally Awareness}{When you cast a spell from the Malediction school which has an {\it Area of Effect}, you may nominate a number of allies equal to your \attFin{} modifier (min 1) to automatically succeed on their Resist check.}
+\boldItem{Overpower}{You may channel extra energy into your Hexes. When performing a damage check for a spell from the Hexes disciplines, you may spend additional FP to increase the damage by an equal amount. The maximum damage increase is equal to your character level.}
+\end{itemize}
+When casting a spell from the Malediction school, you may channel a part of the magical energy into the stone, altering its effects. This costs an additional FP equal to your character level. 
+You may not have the effect of more than one magical Icon active at any one point. If you possess multiple such icons, you can decide which one is active. You can only change your choice after a long rest. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A token infused with energy associated with the Dark Arts. When on your person, it has one of the following effects:
+\begin{itemize}
+\boldItem{Blood Trace}{If you can gather a sample of a being\apos{}s blood, you may perform a 1 minute ritual to locate that being. For the next hour, you are aware of the target\apos{}s location, anywhere in the world.}
+\boldItem{Necrotic Resistance}{You are considered Resistant to Necrotic Damage.}
+\boldItem{Shadowstep}{The voodoo doll wraps the darkness round you making you hard to see. You take advantage on all stealth checks whilst in dim light or less.}
+\boldItem{Life Siphon}{When you kill a being with a spell from the Dark Arts school, you siphon off a portion of their life-energy into your own. Restore HP equal to three times the level of the spell used.}
+ \end{itemize}
+When casting a spell from the Dark Arts school, you may channel a part of the magical energy into the stone, altering its effects. This costs an additional FP equal to your character level. 
+You may not have the effect of more than one magical Icon active at any one point. If you possess multiple such icons, you can decide which one is active. You can only change your choice after a long rest. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -456,22 +483,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -496,7 +508,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -504,90 +516,355 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMJ33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B25" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A25" activeCellId="0" sqref="A25"/>
-      <selection pane="bottomRight" activeCell="D30" activeCellId="0" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="27.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="73.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="47.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="22.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="11.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="12.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="1" width="9.14"/>
+    <col min="1" max="2" width="27.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="103.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="47.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="1" customWidth="1"/>
+    <col min="11" max="1024" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -622,7 +899,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -635,14 +912,14 @@
       <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="H2" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
@@ -655,14 +932,14 @@
       <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="I3" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -675,14 +952,14 @@
       <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="J4" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -695,14 +972,14 @@
       <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="K5" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -718,20 +995,20 @@
       <c r="F6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -747,11 +1024,11 @@
       <c r="F7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="255" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="255" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -770,20 +1047,20 @@
       <c r="G8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="225" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -805,11 +1082,11 @@
       <c r="G9" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
@@ -825,11 +1102,11 @@
       <c r="F10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="1" t="n">
+      <c r="I10" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="165" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:11" ht="165" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
@@ -845,11 +1122,11 @@
       <c r="F11" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="1" t="n">
+      <c r="J11" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
@@ -868,11 +1145,11 @@
       <c r="G12" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J12" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>53</v>
       </c>
@@ -891,11 +1168,11 @@
       <c r="F13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>58</v>
       </c>
@@ -911,11 +1188,11 @@
       <c r="F14" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="I14" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>60</v>
       </c>
@@ -931,20 +1208,20 @@
       <c r="F15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="J15" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>63</v>
       </c>
@@ -960,11 +1237,11 @@
       <c r="F16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="K16" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>67</v>
       </c>
@@ -977,11 +1254,11 @@
       <c r="F17" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="K17" s="1" t="n">
+      <c r="K17" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>70</v>
       </c>
@@ -997,11 +1274,11 @@
       <c r="F18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K18" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>73</v>
       </c>
@@ -1017,11 +1294,11 @@
       <c r="F19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J19" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>75</v>
       </c>
@@ -1037,11 +1314,11 @@
       <c r="F20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H20" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>79</v>
       </c>
@@ -1057,11 +1334,11 @@
       <c r="F21" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I21" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="90" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>80</v>
       </c>
@@ -1077,14 +1354,14 @@
       <c r="F22" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="J22" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="135" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
+      <c r="K22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="135" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>82</v>
       </c>
@@ -1100,11 +1377,11 @@
       <c r="F23" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="K23" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="150" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>84</v>
       </c>
@@ -1120,11 +1397,11 @@
       <c r="F24" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K24" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>88</v>
       </c>
@@ -1137,11 +1414,11 @@
       <c r="F25" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="K25" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>90</v>
       </c>
@@ -1161,7 +1438,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="281.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:11" ht="345" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>95</v>
       </c>
@@ -1169,55 +1446,78 @@
         <v>91</v>
       </c>
       <c r="D27" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="240" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H27" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>91</v>
       </c>
+      <c r="D28" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="F28" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="317.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="H28" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="294.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="H29" s="1" t="n">
-        <v>1</v>
+      <c r="B30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K1"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <autoFilter ref="A1:K1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Story Ideas/Character Items/ItemList.xlsx
+++ b/Story Ideas/Character Items/ItemList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\Story Ideas\Character Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80EC7E46-2173-4E5A-97C1-9EB1768E9DA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B75940F-989F-40D0-857E-22FF1F3F14E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="110">
   <si>
     <t>Name</t>
   </si>
@@ -468,6 +468,12 @@
  \end{itemize}
 When casting a spell from the Dark Arts school, you may channel a part of the magical energy into the stone, altering its effects. This costs an additional FP equal to your character level. 
 You may not have the effect of more than one magical Icon active at any one point. If you possess multiple such icons, you can decide which one is active. You can only change your choice after a long rest. </t>
+  </si>
+  <si>
+    <t>Broken Wand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A broken version of your previous wand. </t>
   </si>
 </sst>
 </file>
@@ -841,13 +847,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMJ33"/>
+  <dimension ref="A1:AMJ34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B29" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="D29"/>
+      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -979,7 +985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
@@ -1008,7 +1014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
@@ -1028,7 +1034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="255" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -1060,7 +1066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -1086,7 +1092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>41</v>
       </c>
@@ -1106,7 +1112,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="165" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>45</v>
       </c>
@@ -1126,7 +1132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
@@ -1172,7 +1178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>58</v>
       </c>
@@ -1221,7 +1227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>63</v>
       </c>
@@ -1338,7 +1344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>80</v>
       </c>
@@ -1361,7 +1367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>82</v>
       </c>
@@ -1381,7 +1387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="150" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>84</v>
       </c>
@@ -1418,7 +1424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>90</v>
       </c>
@@ -1438,7 +1444,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="345" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="255" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>95</v>
       </c>
@@ -1507,12 +1513,23 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Story Ideas/Character Items/ItemList.xlsx
+++ b/Story Ideas/Character Items/ItemList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\Story Ideas\Character Items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B75940F-989F-40D0-857E-22FF1F3F14E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E90098B1-F101-49D7-B36C-33520A4873D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,12 +127,6 @@
   </si>
   <si>
     <t>Purchased from Weasley\apos{}s Wizarding Wheezes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First developed by the Weasley twins as a prank item prior to the Second Wizarding War, the Ministry took a great interest in the Shield Hat as a defensive item. As a result, an entirely new line of (mostly) serious products were introduced. 
-Outwardly, the shield hat appears to be a normal pointed wizard\apos{}s hat, though a peek inside the brim reveals some glowing enchanted runes. Once per day, the wearer can mentally trigger a the hat to produce a shield which projects outwards for a few moments, before quickly fading. 
-This shield is equivalent to the {\it Force Field} spell cast at a third level. During the turn cycle in which the field is activated, you have an impenetrable field which stops all spells and physical attacks from passing through it. 
-This shield has a health of 40HP. If any attack would cause the shield to drop to 0HP, the shield is dispelled and half the remaining damage is dealt to the wearer. </t>
   </si>
   <si>
     <t>\galleon{0.5}</t>
@@ -474,6 +468,14 @@
   </si>
   <si>
     <t xml:space="preserve">A broken version of your previous wand. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First developed by the Weasley twins as a prank item prior to the Second Wizarding War, the Ministry took a great interest in the Shield Hat as a defensive item. As a result, an entirely new line of (mostly) serious products were introduced. 
+Outwardly, the shield hat appears to be a normal pointed wizard\apos{}s hat, though a peek inside the brim reveals some glowing enchanted runes. Once per day, the wearer can mentally trigger a the hat to produce a shield which projects outwards for a few moments, before quickly fading. 
+This shield is equivalent to the {\it Force Field} spell cast at a third level. During the turn cycle in which the field is activated, an ethereal shield blooms into existence around the wearer.
+Whenever an attack is performed against you whilst the shield is active, roll 2d4+2 and add this value to your Resist check or your Block value, as appropriate. If a successful Resist would limit the amount of damage taken, negate it entirely instead. 
+If you fail to Resist, or the Accuracy exceeds your augmented Block value, the shield crumples and the spell is ended. The spell which broke the shield is then applied to you at half damage, with any other effects unmodified. Any other spells which hit you this round act as normal. 
+</t>
   </si>
 </sst>
 </file>
@@ -850,10 +852,10 @@
   <dimension ref="A1:AMJ34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
-      <selection pane="bottomRight" activeCell="D34" sqref="D34"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1034,7 +1036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="195" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="285" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
@@ -1045,13 +1047,13 @@
         <v>31</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
@@ -1068,25 +1070,25 @@
     </row>
     <row r="9" spans="1:11" ht="195" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="K9" s="1">
         <v>1</v>
@@ -1094,19 +1096,19 @@
     </row>
     <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="I10" s="1">
         <v>4</v>
@@ -1114,19 +1116,19 @@
     </row>
     <row r="11" spans="1:11" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="J11" s="1">
         <v>3</v>
@@ -1134,22 +1136,22 @@
     </row>
     <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="J12" s="1">
         <v>1</v>
@@ -1157,22 +1159,22 @@
     </row>
     <row r="13" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
@@ -1180,19 +1182,19 @@
     </row>
     <row r="14" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I14" s="1">
         <v>1</v>
@@ -1200,19 +1202,19 @@
     </row>
     <row r="15" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="H15" s="1">
         <v>1</v>
@@ -1229,19 +1231,19 @@
     </row>
     <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="K16" s="1">
         <v>1</v>
@@ -1249,16 +1251,16 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="F17" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K17" s="1">
         <v>3</v>
@@ -1266,16 +1268,16 @@
     </row>
     <row r="18" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>25</v>
@@ -1286,16 +1288,16 @@
     </row>
     <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>25</v>
@@ -1306,19 +1308,19 @@
     </row>
     <row r="20" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="H20" s="1">
         <v>1</v>
@@ -1326,10 +1328,10 @@
     </row>
     <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>23</v>
@@ -1338,7 +1340,7 @@
         <v>16</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I21" s="1">
         <v>1</v>
@@ -1346,19 +1348,19 @@
     </row>
     <row r="22" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J22" s="1">
         <v>1</v>
@@ -1369,19 +1371,19 @@
     </row>
     <row r="23" spans="1:11" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="F23" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K23" s="1">
         <v>1</v>
@@ -1389,19 +1391,19 @@
     </row>
     <row r="24" spans="1:11" ht="120" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="K24" s="1">
         <v>1</v>
@@ -1409,16 +1411,16 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="F25" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K25" s="1">
         <v>1</v>
@@ -1426,110 +1428,110 @@
     </row>
     <row r="26" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="255" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="240" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="317.25" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="225" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
